--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-sprint-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-sprint-top-by-races-count.xlsx
@@ -86,7 +86,7 @@
     <t>a_inc</t>
   </si>
   <si>
-    <t>83 ч. 11 мин. 5 сек.</t>
+    <t>83 ч. 11 мин. 05 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -95,7 +95,7 @@
     <t>hippo2047</t>
   </si>
   <si>
-    <t>87 ч. 45 мин. 3 сек.</t>
+    <t>87 ч. 45 мин. 03 сек.</t>
   </si>
   <si>
     <t>7</t>
@@ -104,7 +104,7 @@
     <t>Матизик</t>
   </si>
   <si>
-    <t>37 ч. 16 мин. 4 сек.</t>
+    <t>37 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -113,7 +113,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>51 ч. 49 мин. 2 сек.</t>
+    <t>51 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -167,7 +167,7 @@
     <t>Pcholka</t>
   </si>
   <si>
-    <t>26 ч. 7 мин. 22 сек.</t>
+    <t>26 ч. 07 мин. 22 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -176,7 +176,7 @@
     <t>Fris_Chroome</t>
   </si>
   <si>
-    <t>22 ч. 3 мин. 55 сек.</t>
+    <t>22 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>16</t>
@@ -194,7 +194,7 @@
     <t>Сонь</t>
   </si>
   <si>
-    <t>25 ч. 28 мин. 4 сек.</t>
+    <t>25 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -221,7 +221,7 @@
     <t>Nevermor</t>
   </si>
   <si>
-    <t>23 ч. 7 мин. 38 сек.</t>
+    <t>23 ч. 07 мин. 38 сек.</t>
   </si>
   <si>
     <t>21</t>
@@ -230,7 +230,7 @@
     <t>sinicynal2000</t>
   </si>
   <si>
-    <t>41 ч. 8 мин. 33 сек.</t>
+    <t>41 ч. 08 мин. 33 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -266,7 +266,7 @@
     <t>задумчивый</t>
   </si>
   <si>
-    <t>22 ч. 7 мин. 5 сек.</t>
+    <t>22 ч. 07 мин. 05 сек.</t>
   </si>
   <si>
     <t>26</t>
@@ -275,7 +275,7 @@
     <t>rewz</t>
   </si>
   <si>
-    <t>22 ч. 35 мин. 6 сек.</t>
+    <t>22 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>27</t>
@@ -320,7 +320,7 @@
     <t>Aknx</t>
   </si>
   <si>
-    <t>34 ч. 9 мин. 13 сек.</t>
+    <t>34 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>32</t>
@@ -338,7 +338,7 @@
     <t>Suseika</t>
   </si>
   <si>
-    <t>18 ч. 43 мин. 0 сек.</t>
+    <t>18 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>34</t>
@@ -356,7 +356,7 @@
     <t>cannibalcorpse</t>
   </si>
   <si>
-    <t>22 ч. 17 мин. 1 сек.</t>
+    <t>22 ч. 17 мин. 01 сек.</t>
   </si>
   <si>
     <t>36</t>
@@ -365,7 +365,7 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>18 ч. 8 мин. 4 сек.</t>
+    <t>18 ч. 08 мин. 04 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -374,7 +374,7 @@
     <t>Лягушкэ</t>
   </si>
   <si>
-    <t>17 ч. 52 мин. 1 сек.</t>
+    <t>17 ч. 52 мин. 01 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -419,7 +419,7 @@
     <t>ждан</t>
   </si>
   <si>
-    <t>20 ч. 5 мин. 16 сек.</t>
+    <t>20 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>43</t>
@@ -446,7 +446,7 @@
     <t>siquatera</t>
   </si>
   <si>
-    <t>65 ч. 52 мин. 2 сек.</t>
+    <t>65 ч. 52 мин. 02 сек.</t>
   </si>
   <si>
     <t>46</t>
@@ -464,7 +464,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>17 ч. 9 мин. 15 сек.</t>
+    <t>17 ч. 09 мин. 15 сек.</t>
   </si>
   <si>
     <t>48</t>
@@ -509,7 +509,7 @@
     <t>karalina</t>
   </si>
   <si>
-    <t>17 ч. 0 мин. 45 сек.</t>
+    <t>17 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>53</t>
@@ -554,7 +554,7 @@
     <t>MAXIMUSX</t>
   </si>
   <si>
-    <t>14 ч. 30 мин. 4 сек.</t>
+    <t>14 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>58</t>
@@ -599,7 +599,7 @@
     <t>VanDyk</t>
   </si>
   <si>
-    <t>12 ч. 12 мин. 2 сек.</t>
+    <t>12 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>63</t>
@@ -626,7 +626,7 @@
     <t>Lien</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 19 сек.</t>
+    <t>9 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>66–67</t>
@@ -659,7 +659,7 @@
     <t>Grizzly284</t>
   </si>
   <si>
-    <t>18 ч. 7 мин. 31 сек.</t>
+    <t>18 ч. 07 мин. 31 сек.</t>
   </si>
   <si>
     <t>70</t>
@@ -677,7 +677,7 @@
     <t>Supersonic</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 54 сек.</t>
+    <t>13 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>72</t>
@@ -713,7 +713,7 @@
     <t>polyanytsya</t>
   </si>
   <si>
-    <t>20 ч. 7 мин. 45 сек.</t>
+    <t>20 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -722,7 +722,7 @@
     <t>ANYA111</t>
   </si>
   <si>
-    <t>20 ч. 8 мин. 21 сек.</t>
+    <t>20 ч. 08 мин. 21 сек.</t>
   </si>
   <si>
     <t>77</t>
@@ -758,7 +758,7 @@
     <t>aGm</t>
   </si>
   <si>
-    <t>16 ч. 58 мин. 1 сек.</t>
+    <t>16 ч. 58 мин. 01 сек.</t>
   </si>
   <si>
     <t>81</t>
@@ -776,7 +776,7 @@
     <t>Pale_Rider</t>
   </si>
   <si>
-    <t>10 ч. 59 мин. 9 сек.</t>
+    <t>10 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>83</t>
@@ -785,7 +785,7 @@
     <t>p-kuznetsov</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 46 сек.</t>
+    <t>13 ч. 04 мин. 46 сек.</t>
   </si>
   <si>
     <t>84</t>
@@ -818,7 +818,7 @@
     <t>strengthofgod</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 51 сек.</t>
+    <t>9 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>88</t>
@@ -845,7 +845,7 @@
     <t>M0Ng0</t>
   </si>
   <si>
-    <t>31 ч. 5 мин. 11 сек.</t>
+    <t>31 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>91</t>
@@ -872,7 +872,7 @@
     <t>Rightwheel</t>
   </si>
   <si>
-    <t>10 ч. 51 мин. 7 сек.</t>
+    <t>10 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>94</t>
@@ -881,7 +881,7 @@
     <t>200поСкоростной</t>
   </si>
   <si>
-    <t>9 ч. 15 мин. 6 сек.</t>
+    <t>9 ч. 15 мин. 06 сек.</t>
   </si>
   <si>
     <t>95</t>
@@ -890,7 +890,7 @@
     <t>Uri55</t>
   </si>
   <si>
-    <t>15 ч. 47 мин. 4 сек.</t>
+    <t>15 ч. 47 мин. 04 сек.</t>
   </si>
   <si>
     <t>96</t>
@@ -899,7 +899,7 @@
     <t>Stob</t>
   </si>
   <si>
-    <t>13 ч. 0 мин. 50 сек.</t>
+    <t>13 ч. 00 мин. 50 сек.</t>
   </si>
   <si>
     <t>97</t>
@@ -908,7 +908,7 @@
     <t>улитка1</t>
   </si>
   <si>
-    <t>32 ч. 7 мин. 53 сек.</t>
+    <t>32 ч. 07 мин. 53 сек.</t>
   </si>
   <si>
     <t>98</t>
@@ -917,7 +917,7 @@
     <t>Leolex</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 55 сек.</t>
+    <t>11 ч. 04 мин. 55 сек.</t>
   </si>
   <si>
     <t>99</t>
@@ -944,7 +944,7 @@
     <t>milkmark</t>
   </si>
   <si>
-    <t>10 ч. 50 мин. 9 сек.</t>
+    <t>10 ч. 50 мин. 09 сек.</t>
   </si>
   <si>
     <t>102</t>
@@ -995,7 +995,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 19 сек.</t>
+    <t>7 ч. 00 мин. 19 сек.</t>
   </si>
   <si>
     <t>108</t>
@@ -1067,7 +1067,7 @@
     <t>bekatop</t>
   </si>
   <si>
-    <t>29 ч. 6 мин. 45 сек.</t>
+    <t>29 ч. 06 мин. 45 сек.</t>
   </si>
   <si>
     <t>116</t>
@@ -1076,7 +1076,7 @@
     <t>Nistu</t>
   </si>
   <si>
-    <t>9 ч. 57 мин. 8 сек.</t>
+    <t>9 ч. 57 мин. 08 сек.</t>
   </si>
   <si>
     <t>117</t>
@@ -1085,7 +1085,7 @@
     <t>Хазов</t>
   </si>
   <si>
-    <t>9 ч. 55 мин. 7 сек.</t>
+    <t>9 ч. 55 мин. 07 сек.</t>
   </si>
   <si>
     <t>118–119</t>
@@ -1094,7 +1094,7 @@
     <t>Алька007</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 12 сек.</t>
+    <t>8 ч. 06 мин. 12 сек.</t>
   </si>
   <si>
     <t>trup225</t>
@@ -1118,7 +1118,7 @@
     <t>Верховцев</t>
   </si>
   <si>
-    <t>11 ч. 37 мин. 5 сек.</t>
+    <t>11 ч. 37 мин. 05 сек.</t>
   </si>
   <si>
     <t>122–123</t>
@@ -1133,7 +1133,7 @@
     <t>lichinko</t>
   </si>
   <si>
-    <t>14 ч. 5 мин. 40 сек.</t>
+    <t>14 ч. 05 мин. 40 сек.</t>
   </si>
   <si>
     <t>124</t>
@@ -1142,7 +1142,7 @@
     <t>ЕНИ</t>
   </si>
   <si>
-    <t>11 ч. 17 мин. 2 сек.</t>
+    <t>11 ч. 17 мин. 02 сек.</t>
   </si>
   <si>
     <t>125</t>
@@ -1196,7 +1196,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>6 ч. 28 мин. 7 сек.</t>
+    <t>6 ч. 28 мин. 07 сек.</t>
   </si>
   <si>
     <t>131–132</t>
@@ -1205,13 +1205,13 @@
     <t>zimeth9</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 16 сек.</t>
+    <t>10 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>HappyHardcore</t>
   </si>
   <si>
-    <t>9 ч. 37 мин. 6 сек.</t>
+    <t>9 ч. 37 мин. 06 сек.</t>
   </si>
   <si>
     <t>133</t>
@@ -1238,7 +1238,7 @@
     <t>Espera</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 41 сек.</t>
+    <t>8 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>136</t>
@@ -1247,7 +1247,7 @@
     <t>LokoBoss</t>
   </si>
   <si>
-    <t>10 ч. 14 мин. 4 сек.</t>
+    <t>10 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>137</t>
@@ -1265,7 +1265,7 @@
     <t>Хеопс</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 0 сек.</t>
+    <t>9 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>139</t>
@@ -1274,7 +1274,7 @@
     <t>shagrat_07</t>
   </si>
   <si>
-    <t>10 ч. 6 мин. 39 сек.</t>
+    <t>10 ч. 06 мин. 39 сек.</t>
   </si>
   <si>
     <t>140</t>
@@ -1319,7 +1319,7 @@
     <t>Алека</t>
   </si>
   <si>
-    <t>11 ч. 18 мин. 8 сек.</t>
+    <t>11 ч. 18 мин. 08 сек.</t>
   </si>
   <si>
     <t>145–146</t>
@@ -1328,13 +1328,13 @@
     <t>Спелый</t>
   </si>
   <si>
-    <t>11 ч. 30 мин. 8 сек.</t>
+    <t>11 ч. 30 мин. 08 сек.</t>
   </si>
   <si>
     <t>мимими</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 21 сек.</t>
+    <t>8 ч. 00 мин. 21 сек.</t>
   </si>
   <si>
     <t>147</t>
@@ -1352,7 +1352,7 @@
     <t>Radchin</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 49 сек.</t>
+    <t>11 ч. 07 мин. 49 сек.</t>
   </si>
   <si>
     <t>149</t>
@@ -1388,7 +1388,7 @@
     <t>plytishka</t>
   </si>
   <si>
-    <t>6 ч. 44 мин. 9 сек.</t>
+    <t>6 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>153</t>
@@ -1442,7 +1442,7 @@
     <t>mrdamon</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 41 сек.</t>
+    <t>10 ч. 08 мин. 41 сек.</t>
   </si>
   <si>
     <t>159–160</t>
@@ -1457,7 +1457,7 @@
     <t>паукан</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 12 сек.</t>
+    <t>6 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>161</t>
@@ -1493,7 +1493,7 @@
     <t>noob_typist</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 50 сек.</t>
+    <t>8 ч. 01 мин. 50 сек.</t>
   </si>
   <si>
     <t>Андруша</t>
@@ -1538,7 +1538,7 @@
     <t>Лень</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 1 сек.</t>
+    <t>5 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>171</t>
@@ -1556,7 +1556,7 @@
     <t>NinaVladi</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 51 сек.</t>
+    <t>7 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>RODIS</t>
@@ -1580,7 +1580,7 @@
     <t>Переборыч</t>
   </si>
   <si>
-    <t>4 ч. 52 мин. 8 сек.</t>
+    <t>4 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>freia</t>
@@ -1634,7 +1634,7 @@
     <t>Fleabag</t>
   </si>
   <si>
-    <t>10 ч. 45 мин. 6 сек.</t>
+    <t>10 ч. 45 мин. 06 сек.</t>
   </si>
   <si>
     <t>volk70</t>
@@ -1658,7 +1658,7 @@
     <t>Denzilman</t>
   </si>
   <si>
-    <t>6 ч. 50 мин. 5 сек.</t>
+    <t>6 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>186</t>
@@ -1667,7 +1667,7 @@
     <t>Серж_Благ</t>
   </si>
   <si>
-    <t>8 ч. 36 мин. 3 сек.</t>
+    <t>8 ч. 36 мин. 03 сек.</t>
   </si>
   <si>
     <t>187</t>
@@ -1685,7 +1685,7 @@
     <t>snov</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 42 сек.</t>
+    <t>6 ч. 06 мин. 42 сек.</t>
   </si>
   <si>
     <t>189–190</t>
@@ -1700,7 +1700,7 @@
     <t>psv2014</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 39 сек.</t>
+    <t>7 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>191</t>
@@ -1736,7 +1736,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 50 сек.</t>
+    <t>5 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>турандот</t>
@@ -1835,7 +1835,7 @@
     <t>Алексей_победа</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 0 сек.</t>
+    <t>8 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>207</t>
@@ -1862,7 +1862,7 @@
     <t>RombOs</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 49 сек.</t>
+    <t>5 ч. 07 мин. 49 сек.</t>
   </si>
   <si>
     <t>210</t>
@@ -1961,7 +1961,7 @@
     <t>kameheb</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 41 сек.</t>
+    <t>5 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>221</t>
@@ -1970,7 +1970,7 @@
     <t>Навьер</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 13 сек.</t>
+    <t>8 ч. 08 мин. 13 сек.</t>
   </si>
   <si>
     <t>222</t>
@@ -1988,7 +1988,7 @@
     <t>avaloni</t>
   </si>
   <si>
-    <t>4 ч. 50 мин. 8 сек.</t>
+    <t>4 ч. 50 мин. 08 сек.</t>
   </si>
   <si>
     <t>Александр88</t>
@@ -2018,7 +2018,7 @@
     <t>нуммулит</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 55 сек.</t>
+    <t>8 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>228</t>
@@ -2027,7 +2027,7 @@
     <t>genafdsa</t>
   </si>
   <si>
-    <t>9 ч. 36 мин. 5 сек.</t>
+    <t>9 ч. 36 мин. 05 сек.</t>
   </si>
   <si>
     <t>229–230</t>
@@ -2042,7 +2042,7 @@
     <t>CaypoH</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 1 сек.</t>
+    <t>4 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>231</t>
@@ -2075,7 +2075,7 @@
     <t>8ele8</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 49 сек.</t>
+    <t>5 ч. 03 мин. 49 сек.</t>
   </si>
   <si>
     <t>235–236</t>
@@ -2153,7 +2153,7 @@
     <t>Ilya666</t>
   </si>
   <si>
-    <t>5 ч. 34 мин. 7 сек.</t>
+    <t>5 ч. 34 мин. 07 сек.</t>
   </si>
   <si>
     <t>245</t>
@@ -2171,7 +2171,7 @@
     <t>clair</t>
   </si>
   <si>
-    <t>5 ч. 51 мин. 6 сек.</t>
+    <t>5 ч. 51 мин. 06 сек.</t>
   </si>
   <si>
     <t>247</t>
@@ -2240,7 +2240,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>7 ч. 41 мин. 4 сек.</t>
+    <t>7 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>255–257</t>
@@ -2249,7 +2249,7 @@
     <t>Всего_хорошего</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 8 сек.</t>
+    <t>3 ч. 57 мин. 08 сек.</t>
   </si>
   <si>
     <t>Dmitry_Orlov</t>
@@ -2261,7 +2261,7 @@
     <t>strawberries</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 29 сек.</t>
+    <t>5 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>258</t>
@@ -2294,7 +2294,7 @@
     <t>Kenichi</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 56 сек.</t>
+    <t>4 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>262–263</t>
@@ -2303,13 +2303,13 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 8 сек.</t>
+    <t>4 ч. 11 мин. 08 сек.</t>
   </si>
   <si>
     <t>косогор_</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 26 сек.</t>
+    <t>8 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>264–265</t>
@@ -2396,7 +2396,7 @@
     <t>Lilia_Gadetska</t>
   </si>
   <si>
-    <t>13 ч. 1 мин. 15 сек.</t>
+    <t>13 ч. 01 мин. 15 сек.</t>
   </si>
   <si>
     <t>275</t>
@@ -2405,7 +2405,7 @@
     <t>BI-FI-Car</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 40 сек.</t>
+    <t>5 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>276</t>
@@ -2456,7 +2456,7 @@
     <t>_Jack_</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 29 сек.</t>
+    <t>4 ч. 05 мин. 29 сек.</t>
   </si>
   <si>
     <t>282–283</t>
@@ -2519,7 +2519,7 @@
     <t>yoyu</t>
   </si>
   <si>
-    <t>4 ч. 42 мин. 9 сек.</t>
+    <t>4 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>290–291</t>
@@ -2588,7 +2588,7 @@
     <t>mairabek</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 1 сек.</t>
+    <t>6 ч. 07 мин. 01 сек.</t>
   </si>
   <si>
     <t>299–300</t>
@@ -2603,7 +2603,7 @@
     <t>lightmor</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 27 сек.</t>
+    <t>7 ч. 05 мин. 27 сек.</t>
   </si>
   <si>
     <t>301–302</t>
@@ -2612,7 +2612,7 @@
     <t>lornashore</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 6 сек.</t>
+    <t>4 ч. 05 мин. 06 сек.</t>
   </si>
   <si>
     <t>_Daemon_</t>
@@ -2720,7 +2720,7 @@
     <t>-IL-</t>
   </si>
   <si>
-    <t>3 ч. 48 мин. 6 сек.</t>
+    <t>3 ч. 48 мин. 06 сек.</t>
   </si>
   <si>
     <t>driada_</t>
@@ -2735,7 +2735,7 @@
     <t>Божок_Евгений</t>
   </si>
   <si>
-    <t>3 ч. 46 мин. 1 сек.</t>
+    <t>3 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>Insane_Grinder</t>
@@ -2750,13 +2750,13 @@
     <t>Kiberdinka</t>
   </si>
   <si>
-    <t>7 ч. 50 мин. 6 сек.</t>
+    <t>7 ч. 50 мин. 06 сек.</t>
   </si>
   <si>
     <t>Wolcharryk</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 51 сек.</t>
+    <t>8 ч. 05 мин. 51 сек.</t>
   </si>
   <si>
     <t>OlegaBaranov</t>
@@ -2771,7 +2771,7 @@
     <t>Oleg1</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 9 сек.</t>
+    <t>7 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>324–325</t>
@@ -2786,7 +2786,7 @@
     <t>trivium</t>
   </si>
   <si>
-    <t>18 ч. 36 мин. 6 сек.</t>
+    <t>18 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>326–329</t>
@@ -2813,7 +2813,7 @@
     <t>Sergey_Ch</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 33 сек.</t>
+    <t>4 ч. 09 мин. 33 сек.</t>
   </si>
   <si>
     <t>330</t>
@@ -2870,7 +2870,7 @@
     <t>Klavius</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 5 сек.</t>
+    <t>5 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>vect</t>
@@ -2885,7 +2885,7 @@
     <t>ira77_77</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 27 сек.</t>
+    <t>7 ч. 00 мин. 27 сек.</t>
   </si>
   <si>
     <t>ДядяСаша</t>
@@ -2906,7 +2906,7 @@
     <t>sergundo</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 19 сек.</t>
+    <t>5 ч. 06 мин. 19 сек.</t>
   </si>
   <si>
     <t>342–343</t>
@@ -2915,13 +2915,13 @@
     <t>jooga</t>
   </si>
   <si>
-    <t>4 ч. 36 мин. 9 сек.</t>
+    <t>4 ч. 36 мин. 09 сек.</t>
   </si>
   <si>
     <t>ORV88</t>
   </si>
   <si>
-    <t>4 ч. 31 мин. 0 сек.</t>
+    <t>4 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>344–345</t>
@@ -2930,7 +2930,7 @@
     <t>СуперСпринт</t>
   </si>
   <si>
-    <t>4 ч. 53 мин. 4 сек.</t>
+    <t>4 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>xcislav</t>
@@ -2945,7 +2945,7 @@
     <t>hotdude</t>
   </si>
   <si>
-    <t>4 ч. 42 мин. 3 сек.</t>
+    <t>4 ч. 42 мин. 03 сек.</t>
   </si>
   <si>
     <t>347–348</t>
@@ -2954,7 +2954,7 @@
     <t>Speed_King</t>
   </si>
   <si>
-    <t>5 ч. 23 мин. 7 сек.</t>
+    <t>5 ч. 23 мин. 07 сек.</t>
   </si>
   <si>
     <t>Silvelu</t>
@@ -2990,7 +2990,7 @@
     <t>12061987</t>
   </si>
   <si>
-    <t>5 ч. 51 мин. 4 сек.</t>
+    <t>5 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>libertadore</t>
@@ -3083,7 +3083,7 @@
     <t>onealoner</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 47 сек.</t>
+    <t>3 ч. 00 мин. 47 сек.</t>
   </si>
   <si>
     <t>365–367</t>
@@ -3098,7 +3098,7 @@
     <t>Tatoshka11</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 39 сек.</t>
+    <t>5 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>fedind</t>
@@ -3113,13 +3113,13 @@
     <t>ehbq</t>
   </si>
   <si>
-    <t>5 ч. 31 мин. 7 сек.</t>
+    <t>5 ч. 31 мин. 07 сек.</t>
   </si>
   <si>
     <t>oligarh83</t>
   </si>
   <si>
-    <t>3 ч. 43 мин. 6 сек.</t>
+    <t>3 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>370</t>
@@ -3137,13 +3137,13 @@
     <t>iPitbull</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 0 сек.</t>
+    <t>2 ч. 54 мин. 00 сек.</t>
   </si>
   <si>
     <t>ohirok</t>
   </si>
   <si>
-    <t>6 ч. 50 мин. 3 сек.</t>
+    <t>6 ч. 50 мин. 03 сек.</t>
   </si>
   <si>
     <t>K_Se</t>
@@ -3188,7 +3188,7 @@
     <t>spoNS</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 52 сек.</t>
+    <t>4 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>379</t>
@@ -3212,7 +3212,7 @@
     <t>NaCl</t>
   </si>
   <si>
-    <t>5 ч. 29 мин. 2 сек.</t>
+    <t>5 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>Polzychkin</t>
@@ -3263,7 +3263,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 2 сек.</t>
+    <t>3 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>turbulent</t>
@@ -3305,7 +3305,7 @@
     <t>HeyJoe</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 7 сек.</t>
+    <t>2 ч. 30 мин. 07 сек.</t>
   </si>
   <si>
     <t>Grarad</t>
@@ -3323,7 +3323,7 @@
     <t>metadenisik</t>
   </si>
   <si>
-    <t>5 ч. 17 мин. 1 сек.</t>
+    <t>5 ч. 17 мин. 01 сек.</t>
   </si>
   <si>
     <t>398–399</t>
@@ -3332,13 +3332,13 @@
     <t>dtsarenok</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 5 сек.</t>
+    <t>7 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>vido88</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 9 сек.</t>
+    <t>4 ч. 01 мин. 09 сек.</t>
   </si>
   <si>
     <t>400–401</t>
@@ -3347,7 +3347,7 @@
     <t>Снус</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 38 сек.</t>
+    <t>3 ч. 07 мин. 38 сек.</t>
   </si>
   <si>
     <t>ReadyAndGo</t>
@@ -3404,7 +3404,7 @@
     <t>Xupypr_y</t>
   </si>
   <si>
-    <t>4 ч. 34 мин. 5 сек.</t>
+    <t>4 ч. 34 мин. 05 сек.</t>
   </si>
   <si>
     <t>zorrini</t>
@@ -3422,7 +3422,7 @@
     <t>Wonder</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 2 сек.</t>
+    <t>2 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>412–413</t>
@@ -3446,7 +3446,7 @@
     <t>лаоцзы</t>
   </si>
   <si>
-    <t>3 ч. 17 мин. 9 сек.</t>
+    <t>3 ч. 17 мин. 09 сек.</t>
   </si>
   <si>
     <t>415–420</t>
@@ -3467,13 +3467,13 @@
     <t>Alice_Majak</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 2 сек.</t>
+    <t>3 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>Арчи87</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 53 сек.</t>
+    <t>4 ч. 03 мин. 53 сек.</t>
   </si>
   <si>
     <t>Niko1aev</t>
@@ -3494,19 +3494,19 @@
     <t>Петр_Шестаков</t>
   </si>
   <si>
-    <t>4 ч. 32 мин. 7 сек.</t>
+    <t>4 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 43 сек.</t>
+    <t>4 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>Umunty</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 2 сек.</t>
+    <t>4 ч. 02 мин. 02 сек.</t>
   </si>
   <si>
     <t>padfoot</t>
@@ -3518,7 +3518,7 @@
     <t>alensw4</t>
   </si>
   <si>
-    <t>6 ч. 47 мин. 3 сек.</t>
+    <t>6 ч. 47 мин. 03 сек.</t>
   </si>
   <si>
     <t>виток</t>
@@ -3530,7 +3530,7 @@
     <t>Pablo_Ruis</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 2 сек.</t>
+    <t>4 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>ay52_bio</t>
@@ -3554,7 +3554,7 @@
     <t>Щелкунчик</t>
   </si>
   <si>
-    <t>5 ч. 14 мин. 5 сек.</t>
+    <t>5 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>Muwka_C_CeBePa</t>
@@ -3578,7 +3578,7 @@
     <t>natasha272004</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 2 сек.</t>
+    <t>4 ч. 19 мин. 02 сек.</t>
   </si>
   <si>
     <t>Анализатор</t>
@@ -3614,7 +3614,7 @@
     <t>ArrowMiara</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 5 сек.</t>
+    <t>4 ч. 17 мин. 05 сек.</t>
   </si>
   <si>
     <t>cocky_funny</t>
@@ -3626,7 +3626,7 @@
     <t>alanen</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 47 сек.</t>
+    <t>3 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>443</t>
@@ -3644,7 +3644,7 @@
     <t>Минчанка</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 52 сек.</t>
+    <t>8 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>nosferatum</t>
@@ -3659,13 +3659,13 @@
     <t>NewB</t>
   </si>
   <si>
-    <t>3 ч. 47 мин. 6 сек.</t>
+    <t>3 ч. 47 мин. 06 сек.</t>
   </si>
   <si>
     <t>owiden</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 1 сек.</t>
+    <t>4 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>448</t>
@@ -3719,7 +3719,7 @@
     <t>Engi</t>
   </si>
   <si>
-    <t>4 ч. 43 мин. 0 сек.</t>
+    <t>4 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>455–456</t>
@@ -3728,7 +3728,7 @@
     <t>SofaKo</t>
   </si>
   <si>
-    <t>7 ч. 13 мин. 1 сек.</t>
+    <t>7 ч. 13 мин. 01 сек.</t>
   </si>
   <si>
     <t>GGHFGL</t>
@@ -3749,7 +3749,7 @@
     <t>ПИТ</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 41 сек.</t>
+    <t>4 ч. 09 мин. 41 сек.</t>
   </si>
   <si>
     <t>459</t>
@@ -3758,7 +3758,7 @@
     <t>marikYES</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 1 сек.</t>
+    <t>3 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>460–461</t>
@@ -3812,13 +3812,13 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 57 сек.</t>
+    <t>3 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>udezich</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 21 сек.</t>
+    <t>3 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>zlatazaz</t>
@@ -3848,7 +3848,7 @@
     <t>xfhkb</t>
   </si>
   <si>
-    <t>17 ч. 0 мин. 17 сек.</t>
+    <t>17 ч. 00 мин. 17 сек.</t>
   </si>
   <si>
     <t>Bimbula</t>
@@ -3863,7 +3863,7 @@
     <t>Rigger</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 10 сек.</t>
+    <t>6 ч. 03 мин. 10 сек.</t>
   </si>
   <si>
     <t>vadimsanych</t>
@@ -3875,7 +3875,7 @@
     <t>haos2100</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 3 сек.</t>
+    <t>2 ч. 42 мин. 03 сек.</t>
   </si>
   <si>
     <t>476–478</t>
@@ -3977,7 +3977,7 @@
     <t>PROcent</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 8 сек.</t>
+    <t>2 ч. 04 мин. 08 сек.</t>
   </si>
   <si>
     <t>490–494</t>
@@ -4004,7 +4004,7 @@
     <t>StarBA</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 18 сек.</t>
+    <t>10 ч. 07 мин. 18 сек.</t>
   </si>
   <si>
     <t>Felikc</t>
@@ -4046,7 +4046,7 @@
     <t>Zasadaa</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 12 сек.</t>
+    <t>7 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>_ECO_</t>
@@ -4097,7 +4097,7 @@
     <t>azyl</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 17 сек.</t>
+    <t>4 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>508–510</t>
@@ -4133,7 +4133,7 @@
     <t>205i</t>
   </si>
   <si>
-    <t>6 ч. 49 мин. 5 сек.</t>
+    <t>6 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>513</t>
@@ -4166,13 +4166,13 @@
     <t>оно</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 14 сек.</t>
+    <t>2 ч. 05 мин. 14 сек.</t>
   </si>
   <si>
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 58 сек.</t>
+    <t>2 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>518</t>
@@ -4214,7 +4214,7 @@
     <t>frolix</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 12 сек.</t>
+    <t>7 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>SlyBeetle</t>
@@ -4280,7 +4280,7 @@
     <t>disbios</t>
   </si>
   <si>
-    <t>5 ч. 31 мин. 8 сек.</t>
+    <t>5 ч. 31 мин. 08 сек.</t>
   </si>
   <si>
     <t>Trane</t>
@@ -4334,7 +4334,7 @@
     <t>Гегемон</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 5 сек.</t>
+    <t>1 ч. 53 мин. 05 сек.</t>
   </si>
   <si>
     <t>540–542</t>
@@ -4343,7 +4343,7 @@
     <t>buerak</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 4 сек.</t>
+    <t>2 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>БурячОК</t>
@@ -4388,7 +4388,7 @@
     <t>pelmen</t>
   </si>
   <si>
-    <t>3 ч. 31 мин. 5 сек.</t>
+    <t>3 ч. 31 мин. 05 сек.</t>
   </si>
   <si>
     <t>Kml</t>
@@ -4409,7 +4409,7 @@
     <t>za555</t>
   </si>
   <si>
-    <t>8 ч. 51 мин. 3 сек.</t>
+    <t>8 ч. 51 мин. 03 сек.</t>
   </si>
   <si>
     <t>JohnStone</t>
@@ -4436,7 +4436,7 @@
     <t>Elinochka</t>
   </si>
   <si>
-    <t>5 ч. 13 мин. 2 сек.</t>
+    <t>5 ч. 13 мин. 02 сек.</t>
   </si>
   <si>
     <t>Vreditel</t>
@@ -4475,13 +4475,13 @@
     <t>gevis</t>
   </si>
   <si>
-    <t>3 ч. 50 мин. 8 сек.</t>
+    <t>3 ч. 50 мин. 08 сек.</t>
   </si>
   <si>
     <t>meganoob</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 19 сек.</t>
+    <t>2 ч. 00 мин. 19 сек.</t>
   </si>
   <si>
     <t>561</t>
@@ -4490,7 +4490,7 @@
     <t>tinto</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 2 сек.</t>
+    <t>3 ч. 10 мин. 02 сек.</t>
   </si>
   <si>
     <t>562–566</t>
@@ -4499,7 +4499,7 @@
     <t>Rb7</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 48 сек.</t>
+    <t>2 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>Mahdi</t>
@@ -4523,7 +4523,7 @@
     <t>alenka</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 5 сек.</t>
+    <t>2 ч. 12 мин. 05 сек.</t>
   </si>
   <si>
     <t>567–570</t>
@@ -4532,7 +4532,7 @@
     <t>beznickk</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 5 сек.</t>
+    <t>3 ч. 15 мин. 05 сек.</t>
   </si>
   <si>
     <t>ветер12</t>
@@ -4598,7 +4598,7 @@
     <t>demonclown</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 1 сек.</t>
+    <t>2 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>Жижикова</t>
@@ -4622,7 +4622,7 @@
     <t>threesev</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 4 сек.</t>
+    <t>3 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>582–584</t>
@@ -4637,7 +4637,7 @@
     <t>system_error</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 27 сек.</t>
+    <t>2 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>Alkemist</t>
@@ -4652,25 +4652,25 @@
     <t>Arishkou</t>
   </si>
   <si>
-    <t>2 ч. 27 мин. 6 сек.</t>
+    <t>2 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>iji</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 0 сек.</t>
+    <t>1 ч. 57 мин. 00 сек.</t>
   </si>
   <si>
     <t>Руфер</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 8 сек.</t>
+    <t>2 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>Dokee</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 3 сек.</t>
+    <t>2 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>589–592</t>
@@ -4679,7 +4679,7 @@
     <t>Alston</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 37 сек.</t>
+    <t>3 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>ЗаяЦ_ВолК</t>
@@ -4739,7 +4739,7 @@
     <t>-creed-</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 24 сек.</t>
+    <t>2 ч. 08 мин. 24 сек.</t>
   </si>
   <si>
     <t>DenL</t>
@@ -4760,7 +4760,7 @@
     <t>Интересующийся</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 4 сек.</t>
+    <t>3 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>602–610</t>
@@ -4769,7 +4769,7 @@
     <t>cristini</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 30 сек.</t>
+    <t>4 ч. 01 мин. 30 сек.</t>
   </si>
   <si>
     <t>sinij</t>
@@ -4781,7 +4781,7 @@
     <t>SergeK</t>
   </si>
   <si>
-    <t>3 ч. 58 мин. 7 сек.</t>
+    <t>3 ч. 58 мин. 07 сек.</t>
   </si>
   <si>
     <t>YuranTM</t>
@@ -4811,7 +4811,7 @@
     <t>AstonMartinDB10</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 7 сек.</t>
+    <t>1 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>ППШ</t>
@@ -4850,13 +4850,13 @@
     <t>Tenguy</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 40 сек.</t>
+    <t>3 ч. 01 мин. 40 сек.</t>
   </si>
   <si>
     <t>отлезь_вова</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 28 сек.</t>
+    <t>5 ч. 08 мин. 28 сек.</t>
   </si>
   <si>
     <t>Ai_bek</t>
@@ -4883,13 +4883,13 @@
     <t>genie_1855</t>
   </si>
   <si>
-    <t>2 ч. 43 мин. 6 сек.</t>
+    <t>2 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>Рюша</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 7 сек.</t>
+    <t>3 ч. 16 мин. 07 сек.</t>
   </si>
   <si>
     <t>622–624</t>
@@ -4919,13 +4919,13 @@
     <t>Михаил-12рус</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 9 сек.</t>
+    <t>4 ч. 03 мин. 09 сек.</t>
   </si>
   <si>
     <t>Тарья</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 1 сек.</t>
+    <t>2 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>inobject</t>
@@ -4946,7 +4946,7 @@
     <t>KuzYur</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 0 сек.</t>
+    <t>2 ч. 42 мин. 00 сек.</t>
   </si>
   <si>
     <t>Bombazok</t>
@@ -4979,7 +4979,7 @@
     <t>Яня</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 2 сек.</t>
+    <t>2 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>Радончег</t>
@@ -5000,7 +5000,7 @@
     <t>zavex</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 3 сек.</t>
+    <t>3 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>638–639</t>
@@ -5024,7 +5024,7 @@
     <t>Томас86</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 58 сек.</t>
+    <t>4 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>citello</t>
@@ -5057,7 +5057,7 @@
     <t>ilyavedler85</t>
   </si>
   <si>
-    <t>6 ч. 59 мин. 9 сек.</t>
+    <t>6 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>Фолко</t>
@@ -5084,7 +5084,7 @@
     <t>Plectrum</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 7 сек.</t>
+    <t>2 ч. 56 мин. 07 сек.</t>
   </si>
   <si>
     <t>vova555</t>
@@ -5114,7 +5114,7 @@
     <t>master_20</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 47 сек.</t>
+    <t>4 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>Robust</t>
@@ -5147,7 +5147,7 @@
     <t>Seyaua</t>
   </si>
   <si>
-    <t>1 ч. 50 мин. 2 сек.</t>
+    <t>1 ч. 50 мин. 02 сек.</t>
   </si>
   <si>
     <t>660–664</t>
@@ -5156,7 +5156,7 @@
     <t>000Норик000</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 16 сек.</t>
+    <t>3 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>k1netik</t>
@@ -5216,7 +5216,7 @@
     <t>karabaska</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 25 сек.</t>
+    <t>3 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>olimo</t>
@@ -5243,7 +5243,7 @@
     <t>ele_ele</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 8 сек.</t>
+    <t>2 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>maksusar</t>
@@ -5255,7 +5255,7 @@
     <t>Ласточка-</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 41 сек.</t>
+    <t>4 ч. 00 мин. 41 сек.</t>
   </si>
   <si>
     <t>676–679</t>
@@ -5276,7 +5276,7 @@
     <t>Wolf4</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 16 сек.</t>
+    <t>2 ч. 01 мин. 16 сек.</t>
   </si>
   <si>
     <t>Sveta1982</t>
@@ -5297,7 +5297,7 @@
     <t>Grevozin</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 41 сек.</t>
+    <t>3 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>velocipede</t>
@@ -5309,7 +5309,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 2 сек.</t>
+    <t>1 ч. 27 мин. 02 сек.</t>
   </si>
   <si>
     <t>dslf</t>
@@ -5336,13 +5336,13 @@
     <t>Мирный</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 3 сек.</t>
+    <t>2 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>Корн</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 53 сек.</t>
+    <t>3 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>689–691</t>
@@ -5357,7 +5357,7 @@
     <t>vvl</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 58 сек.</t>
+    <t>3 ч. 05 мин. 58 сек.</t>
   </si>
   <si>
     <t>ZVEZDNAYA</t>
@@ -5405,7 +5405,7 @@
     <t>feuerstein</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 50 сек.</t>
+    <t>2 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>699–701</t>
@@ -5435,7 +5435,7 @@
     <t>Thrust_SSC</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 22 сек.</t>
+    <t>3 ч. 06 мин. 22 сек.</t>
   </si>
   <si>
     <t>doklls</t>
@@ -5456,7 +5456,7 @@
     <t>HawlBix</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 2 сек.</t>
+    <t>3 ч. 00 мин. 02 сек.</t>
   </si>
   <si>
     <t>damir27</t>
@@ -5483,7 +5483,7 @@
     <t>ГоречьПоражения</t>
   </si>
   <si>
-    <t>3 ч. 37 мин. 4 сек.</t>
+    <t>3 ч. 37 мин. 04 сек.</t>
   </si>
   <si>
     <t>artt</t>
@@ -5498,7 +5498,7 @@
     <t>Gadetska_Yulia</t>
   </si>
   <si>
-    <t>6 ч. 12 мин. 7 сек.</t>
+    <t>6 ч. 12 мин. 07 сек.</t>
   </si>
   <si>
     <t>Hale</t>
@@ -5516,7 +5516,7 @@
     <t>Alex_747</t>
   </si>
   <si>
-    <t>3 ч. 40 мин. 8 сек.</t>
+    <t>3 ч. 40 мин. 08 сек.</t>
   </si>
   <si>
     <t>715–718</t>
@@ -5543,7 +5543,7 @@
     <t>Slenderman</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 7 сек.</t>
+    <t>2 ч. 54 мин. 07 сек.</t>
   </si>
   <si>
     <t>719–722</t>
@@ -5552,7 +5552,7 @@
     <t>MirZz</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 32 сек.</t>
+    <t>2 ч. 02 мин. 32 сек.</t>
   </si>
   <si>
     <t>ILyaDens</t>
@@ -5627,7 +5627,7 @@
     <t>ydog</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 2 сек.</t>
+    <t>3 ч. 33 мин. 02 сек.</t>
   </si>
   <si>
     <t>f0rm4t</t>
@@ -5639,7 +5639,7 @@
     <t>Kraken1994</t>
   </si>
   <si>
-    <t>3 ч. 11 мин. 8 сек.</t>
+    <t>3 ч. 11 мин. 08 сек.</t>
   </si>
   <si>
     <t>734–735</t>
@@ -5660,13 +5660,13 @@
     <t>SGP63</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 6 сек.</t>
+    <t>3 ч. 06 мин. 06 сек.</t>
   </si>
   <si>
     <t>proximo39</t>
   </si>
   <si>
-    <t>2 ч. 13 мин. 4 сек.</t>
+    <t>2 ч. 13 мин. 04 сек.</t>
   </si>
   <si>
     <t>Pisaka</t>
@@ -5702,7 +5702,7 @@
     <t>ShadenII</t>
   </si>
   <si>
-    <t>2 ч. 20 мин. 4 сек.</t>
+    <t>2 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>744–746</t>
@@ -5750,7 +5750,7 @@
     <t>Galoperidol</t>
   </si>
   <si>
-    <t>1 ч. 17 мин. 4 сек.</t>
+    <t>1 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>Всеслик</t>
@@ -5771,7 +5771,7 @@
     <t>pewpewpow</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 19 сек.</t>
+    <t>2 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>Jenty</t>
@@ -5783,7 +5783,7 @@
     <t>VOLLUF</t>
   </si>
   <si>
-    <t>2 ч. 17 мин. 4 сек.</t>
+    <t>2 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>756–757</t>
@@ -5840,7 +5840,7 @@
     <t>_NoMaD_</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 1 сек.</t>
+    <t>2 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>nonstop_</t>
@@ -5858,7 +5858,7 @@
     <t>УчусьБезОшибок</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 4 сек.</t>
+    <t>1 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>768–772</t>
@@ -5867,7 +5867,7 @@
     <t>DcDimon</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 4 сек.</t>
+    <t>2 ч. 01 мин. 04 сек.</t>
   </si>
   <si>
     <t>Alex2016</t>
@@ -5906,7 +5906,7 @@
     <t>Мазок</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 55 сек.</t>
+    <t>2 ч. 05 мин. 55 сек.</t>
   </si>
   <si>
     <t>coffeek</t>
@@ -5924,13 +5924,13 @@
     <t>Anarjell</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 57 сек.</t>
+    <t>3 ч. 06 мин. 57 сек.</t>
   </si>
   <si>
     <t>nikioa</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 40 сек.</t>
+    <t>3 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>Elenwen</t>
@@ -5939,7 +5939,7 @@
     <t>smsn</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 2 сек.</t>
+    <t>2 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>781–784</t>
@@ -5975,13 +5975,13 @@
     <t>tvger</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 38 сек.</t>
+    <t>6 ч. 04 мин. 38 сек.</t>
   </si>
   <si>
     <t>ozeki</t>
   </si>
   <si>
-    <t>4 ч. 18 мин. 8 сек.</t>
+    <t>4 ч. 18 мин. 08 сек.</t>
   </si>
   <si>
     <t>Anton_T</t>
@@ -5999,7 +5999,7 @@
     <t>Аннетт</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 59 сек.</t>
+    <t>3 ч. 05 мин. 59 сек.</t>
   </si>
   <si>
     <t>Hydrogen</t>
@@ -6026,7 +6026,7 @@
     <t>Tigror</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 15 сек.</t>
+    <t>2 ч. 07 мин. 15 сек.</t>
   </si>
   <si>
     <t>Себрик</t>
@@ -6038,7 +6038,7 @@
     <t>SirenScream</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 45 сек.</t>
+    <t>2 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>Ismail-06</t>
@@ -6053,7 +6053,7 @@
     <t>makorvi</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 4 сек.</t>
+    <t>3 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>alexix</t>
@@ -6077,7 +6077,7 @@
     <t>thefastest</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 5 сек.</t>
+    <t>2 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>Zippin</t>
@@ -6089,7 +6089,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 45 сек.</t>
+    <t>2 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>Dany</t>
@@ -6110,7 +6110,7 @@
     <t>fominov</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 8 сек.</t>
+    <t>3 ч. 06 мин. 08 сек.</t>
   </si>
   <si>
     <t>Ra7en</t>
@@ -6122,13 +6122,13 @@
     <t>Френдли</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 41 сек.</t>
+    <t>2 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>yaytsepes</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 52 сек.</t>
+    <t>4 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>flimes</t>
@@ -6161,7 +6161,7 @@
     <t>Aleksius</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 21 сек.</t>
+    <t>3 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>kakvaska</t>
@@ -6194,7 +6194,7 @@
     <t>Chat-Fighter</t>
   </si>
   <si>
-    <t>2 ч. 34 мин. 8 сек.</t>
+    <t>2 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>Yuron_19</t>
@@ -6233,13 +6233,13 @@
     <t>ooojaming</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 45 сек.</t>
+    <t>3 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>Tahion</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 6 сек.</t>
+    <t>1 ч. 28 мин. 06 сек.</t>
   </si>
   <si>
     <t>827–834</t>
@@ -6248,13 +6248,13 @@
     <t>KleiAseS</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 51 сек.</t>
+    <t>2 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>Julieta-nv</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 39 сек.</t>
+    <t>2 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>Guillentes</t>
@@ -6311,7 +6311,7 @@
     <t>Katastrofffa</t>
   </si>
   <si>
-    <t>4 ч. 23 мин. 2 сек.</t>
+    <t>4 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>Супербармен</t>
@@ -6371,7 +6371,7 @@
     <t>Shystrui</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 32 сек.</t>
+    <t>4 ч. 02 мин. 32 сек.</t>
   </si>
   <si>
     <t>SweetBlood</t>
@@ -6431,7 +6431,7 @@
     <t>Лелюгри</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 34 сек.</t>
+    <t>2 ч. 04 мин. 34 сек.</t>
   </si>
   <si>
     <t>rynjulia</t>
@@ -6452,7 +6452,7 @@
     <t>vremyada</t>
   </si>
   <si>
-    <t>6 ч. 20 мин. 9 сек.</t>
+    <t>6 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>lislkap</t>
@@ -6464,7 +6464,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 1 сек.</t>
+    <t>1 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>ольга77</t>
@@ -6473,7 +6473,7 @@
     <t>tonyk</t>
   </si>
   <si>
-    <t>16 ч. 4 мин. 28 сек.</t>
+    <t>16 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>863–866</t>
@@ -6482,7 +6482,7 @@
     <t>klavobit</t>
   </si>
   <si>
-    <t>2 ч. 31 мин. 2 сек.</t>
+    <t>2 ч. 31 мин. 02 сек.</t>
   </si>
   <si>
     <t>Буклер</t>
@@ -6515,13 +6515,13 @@
     <t>mibig</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 57 сек.</t>
+    <t>2 ч. 08 мин. 57 сек.</t>
   </si>
   <si>
     <t>Salamondro</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 6 сек.</t>
+    <t>2 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>moonwwwind</t>
@@ -6584,7 +6584,7 @@
     <t>-MONOLITH</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 7 сек.</t>
+    <t>2 ч. 14 мин. 07 сек.</t>
   </si>
   <si>
     <t>Hei5</t>
@@ -6596,7 +6596,7 @@
     <t>ritochka27</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 27 сек.</t>
+    <t>2 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>evgen65</t>
@@ -6650,13 +6650,13 @@
     <t>Iriska999</t>
   </si>
   <si>
-    <t>4 ч. 22 мин. 4 сек.</t>
+    <t>4 ч. 22 мин. 04 сек.</t>
   </si>
   <si>
     <t>Noob777</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 5 сек.</t>
+    <t>1 ч. 54 мин. 05 сек.</t>
   </si>
   <si>
     <t>Disobey</t>
@@ -6668,13 +6668,13 @@
     <t>Ann_13</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 46 сек.</t>
+    <t>2 ч. 07 мин. 46 сек.</t>
   </si>
   <si>
     <t>Arachne</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 16 сек.</t>
+    <t>2 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>rykov-ivan</t>
@@ -6707,13 +6707,13 @@
     <t>Елена29</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 55 сек.</t>
+    <t>6 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>mexakis</t>
   </si>
   <si>
-    <t>2 ч. 47 мин. 3 сек.</t>
+    <t>2 ч. 47 мин. 03 сек.</t>
   </si>
   <si>
     <t>Netinet1</t>
@@ -6725,7 +6725,7 @@
     <t>шамик</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 9 сек.</t>
+    <t>2 ч. 33 мин. 09 сек.</t>
   </si>
   <si>
     <t>bioramaenator</t>
@@ -6740,7 +6740,7 @@
     <t>traivens</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 7 сек.</t>
+    <t>2 ч. 58 мин. 07 сек.</t>
   </si>
   <si>
     <t>FominovDS</t>
@@ -6752,19 +6752,19 @@
     <t>GrandSwuirrel</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 32 сек.</t>
+    <t>2 ч. 06 мин. 32 сек.</t>
   </si>
   <si>
     <t>ROMACHKA</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 7 сек.</t>
+    <t>4 ч. 56 мин. 07 сек.</t>
   </si>
   <si>
     <t>Batbara</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 1 сек.</t>
+    <t>2 ч. 02 мин. 01 сек.</t>
   </si>
   <si>
     <t>E_l_e_n_a</t>
@@ -6788,7 +6788,7 @@
     <t>SnowMen</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 15 сек.</t>
+    <t>1 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>LeBron</t>
@@ -6830,19 +6830,19 @@
     <t>Эльфинит</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 42 сек.</t>
+    <t>2 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>_Mira_</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 42 сек.</t>
+    <t>1 ч. 01 мин. 42 сек.</t>
   </si>
   <si>
     <t>Amateur_</t>
   </si>
   <si>
-    <t>1 ч. 32 мин. 4 сек.</t>
+    <t>1 ч. 32 мин. 04 сек.</t>
   </si>
   <si>
     <t>921–929</t>
@@ -6881,7 +6881,7 @@
     <t>dimasi</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 56 сек.</t>
+    <t>2 ч. 04 мин. 56 сек.</t>
   </si>
   <si>
     <t>Gbit</t>
@@ -6893,7 +6893,7 @@
     <t>M-A-K-S</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 1 сек.</t>
+    <t>2 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>GalaGale</t>
@@ -6914,7 +6914,7 @@
     <t>Братишка</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 4 сек.</t>
+    <t>2 ч. 06 мин. 04 сек.</t>
   </si>
   <si>
     <t>Olesya_29</t>
@@ -6935,7 +6935,7 @@
     <t>Squirr</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 17 сек.</t>
+    <t>2 ч. 04 мин. 17 сек.</t>
   </si>
   <si>
     <t>936–941</t>
@@ -6956,7 +6956,7 @@
     <t>Pasha18</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 5 сек.</t>
+    <t>1 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>Дед-Пихто</t>
@@ -6983,7 +6983,7 @@
     <t>Коретай</t>
   </si>
   <si>
-    <t>1 ч. 10 мин. 2 сек.</t>
+    <t>1 ч. 10 мин. 02 сек.</t>
   </si>
   <si>
     <t>rar17</t>
@@ -7007,7 +7007,7 @@
     <t>rashsik</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 54 сек.</t>
+    <t>2 ч. 00 мин. 54 сек.</t>
   </si>
   <si>
     <t>toxacheck</t>
@@ -7043,7 +7043,7 @@
     <t>PavlovaLS</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 11 сек.</t>
+    <t>3 ч. 03 мин. 11 сек.</t>
   </si>
   <si>
     <t>_VR_</t>
@@ -7055,7 +7055,7 @@
     <t>sergiorm</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 57 сек.</t>
+    <t>3 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>ОлегК</t>
@@ -7121,7 +7121,7 @@
     <t>gromanspb</t>
   </si>
   <si>
-    <t>2 ч. 13 мин. 8 сек.</t>
+    <t>2 ч. 13 мин. 08 сек.</t>
   </si>
   <si>
     <t>Велимира</t>
@@ -7151,7 +7151,7 @@
     <t>Oxanette</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 42 сек.</t>
+    <t>1 ч. 04 мин. 42 сек.</t>
   </si>
   <si>
     <t>Greedlaze</t>
@@ -7175,7 +7175,7 @@
     <t>Татуяна</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 2 сек.</t>
+    <t>3 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>m9so88</t>
@@ -7205,7 +7205,7 @@
     <t>iPod_touch</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 7 сек.</t>
+    <t>2 ч. 06 мин. 07 сек.</t>
   </si>
   <si>
     <t>corey_haim</t>
@@ -7244,7 +7244,7 @@
     <t>ПовелительКотят</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 4 сек.</t>
+    <t>1 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>Sssu</t>
@@ -7262,19 +7262,19 @@
     <t>tom280586</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 8 сек.</t>
+    <t>2 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>MOYSHA</t>
   </si>
   <si>
-    <t>1 ч. 50 мин. 1 сек.</t>
+    <t>1 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>Explorerpro</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 15 сек.</t>
+    <t>1 ч. 06 мин. 15 сек.</t>
   </si>
   <si>
     <t>990–994</t>
@@ -7292,7 +7292,7 @@
     <t>Adlerrr1974</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 7 сек.</t>
+    <t>2 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>SkiperUA</t>
@@ -7310,7 +7310,7 @@
     <t>РодионГ</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 0 сек.</t>
+    <t>1 ч. 45 мин. 00 сек.</t>
   </si>
   <si>
     <t>моном</t>
@@ -7397,7 +7397,7 @@
     <t>Nondv</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 4 сек.</t>
+    <t>1 ч. 40 мин. 04 сек.</t>
   </si>
   <si>
     <t>graffdemorai</t>
@@ -7439,7 +7439,7 @@
     <t>Debugger</t>
   </si>
   <si>
-    <t>1 ч. 44 мин. 9 сек.</t>
+    <t>1 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>saben_askhat</t>
@@ -7451,7 +7451,7 @@
     <t>ilya_138</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 9 сек.</t>
+    <t>1 ч. 52 мин. 09 сек.</t>
   </si>
   <si>
     <t>snapfire</t>
@@ -7508,7 +7508,7 @@
     <t>serg_omen</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 6 сек.</t>
+    <t>1 ч. 05 мин. 06 сек.</t>
   </si>
   <si>
     <t>доползу</t>
@@ -7538,19 +7538,19 @@
     <t>seregagrig</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 9 сек.</t>
+    <t>1 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>Гончаренко</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 7 сек.</t>
+    <t>2 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>e2e4</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 33 сек.</t>
+    <t>2 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>deemaxy</t>
@@ -7577,7 +7577,7 @@
     <t>северодвинск66</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 42 сек.</t>
+    <t>4 ч. 06 мин. 42 сек.</t>
   </si>
   <si>
     <t>nakosh</t>
@@ -7595,7 +7595,7 @@
     <t>Albert_Sabitov</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 10 сек.</t>
+    <t>3 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>sashokcool</t>
@@ -7634,13 +7634,13 @@
     <t>heavy_ezh</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 6 сек.</t>
+    <t>2 ч. 00 мин. 06 сек.</t>
   </si>
   <si>
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 2 сек.</t>
+    <t>1 ч. 35 мин. 02 сек.</t>
   </si>
   <si>
     <t>oyasumi</t>
@@ -7661,13 +7661,13 @@
     <t>NigVan</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 3 сек.</t>
+    <t>1 ч. 18 мин. 03 сек.</t>
   </si>
   <si>
     <t>Levscha86</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 34 сек.</t>
+    <t>2 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>Flam91</t>
@@ -7730,7 +7730,7 @@
     <t>Аналбум21378</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 3 сек.</t>
+    <t>2 ч. 33 мин. 03 сек.</t>
   </si>
   <si>
     <t>Dallas4</t>
@@ -7748,7 +7748,7 @@
     <t>jfk</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 1 сек.</t>
+    <t>2 ч. 06 мин. 01 сек.</t>
   </si>
   <si>
     <t>Laplass</t>
@@ -7769,7 +7769,7 @@
     <t>Элюня</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 32 сек.</t>
+    <t>3 ч. 03 мин. 32 сек.</t>
   </si>
   <si>
     <t>victgerasimova</t>
@@ -7805,7 +7805,7 @@
     <t>forward-ok</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 24 сек.</t>
+    <t>2 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>Свинота</t>
@@ -7916,7 +7916,7 @@
     <t>mesenev</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 33 сек.</t>
+    <t>2 ч. 09 мин. 33 сек.</t>
   </si>
   <si>
     <t>adesk</t>
@@ -7949,13 +7949,13 @@
     <t>sergeiss_nn</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 0 сек.</t>
+    <t>1 ч. 53 мин. 00 сек.</t>
   </si>
   <si>
     <t>tkozak</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 4 сек.</t>
+    <t>1 ч. 22 мин. 04 сек.</t>
   </si>
   <si>
     <t>1101–1113</t>
@@ -7964,19 +7964,19 @@
     <t>agazadetofik</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 3 сек.</t>
+    <t>1 ч. 26 мин. 03 сек.</t>
   </si>
   <si>
     <t>XNeon</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 3 сек.</t>
+    <t>1 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>ArtefactX</t>
   </si>
   <si>
-    <t>2 ч. 27 мин. 5 сек.</t>
+    <t>2 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>Jomazaka</t>
@@ -8018,13 +8018,13 @@
     <t>ТрупОдиночка</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 19 сек.</t>
+    <t>1 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>ramon105</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 33 сек.</t>
+    <t>1 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>4BOSS</t>
@@ -8087,13 +8087,13 @@
     <t>cucu</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 3 сек.</t>
+    <t>2 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>Dude2</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 28 сек.</t>
+    <t>2 ч. 02 мин. 28 сек.</t>
   </si>
   <si>
     <t>1123–1128</t>
@@ -8144,7 +8144,7 @@
     <t>anguis</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 12 сек.</t>
+    <t>3 ч. 02 мин. 12 сек.</t>
   </si>
   <si>
     <t>Тираэль</t>
@@ -8162,7 +8162,7 @@
     <t>lusisha</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 2 сек.</t>
+    <t>2 ч. 50 мин. 02 сек.</t>
   </si>
   <si>
     <t>yurkut</t>
@@ -8177,7 +8177,7 @@
     <t>morgan_hot</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 1 сек.</t>
+    <t>1 ч. 20 мин. 01 сек.</t>
   </si>
   <si>
     <t>keygod</t>
@@ -8189,7 +8189,7 @@
     <t>kotartur</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>Eyeless</t>
@@ -8204,7 +8204,7 @@
     <t>evg64</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 1 сек.</t>
+    <t>1 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>klim2012</t>
@@ -8222,7 +8222,7 @@
     <t>Narwhale</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 8 сек.</t>
+    <t>1 ч. 18 мин. 08 сек.</t>
   </si>
   <si>
     <t>T0RM0ZZZ</t>
@@ -8234,7 +8234,7 @@
     <t>Revangleb</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 4 сек.</t>
+    <t>1 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>Fjkeee</t>
@@ -8246,19 +8246,19 @@
     <t>vikinka</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 8 сек.</t>
+    <t>1 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>KiD2</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 33 сек.</t>
+    <t>1 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>Canna</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 8 сек.</t>
+    <t>1 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>kernal_debuger</t>
@@ -8279,7 +8279,7 @@
     <t>Raxma</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 2 сек.</t>
+    <t>1 ч. 25 мин. 02 сек.</t>
   </si>
   <si>
     <t>dfret</t>
@@ -8309,7 +8309,7 @@
     <t>Phoen9ix</t>
   </si>
   <si>
-    <t>1 ч. 42 мин. 0 сек.</t>
+    <t>1 ч. 42 мин. 00 сек.</t>
   </si>
   <si>
     <t>1158–1169</t>
@@ -8333,7 +8333,7 @@
     <t>NIKKOV</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 5 сек.</t>
+    <t>2 ч. 03 мин. 05 сек.</t>
   </si>
   <si>
     <t>Dornat</t>
@@ -8357,7 +8357,7 @@
     <t>gigimus</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 3 сек.</t>
+    <t>1 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>AlexSIBER</t>
@@ -8375,7 +8375,7 @@
     <t>Lifeisgood3k</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 9 сек.</t>
+    <t>1 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>smertsgranatoi</t>
@@ -8414,7 +8414,7 @@
     <t>Daene</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 28 сек.</t>
+    <t>2 ч. 00 мин. 28 сек.</t>
   </si>
   <si>
     <t>1175–1187</t>
@@ -8423,19 +8423,19 @@
     <t>Abel1sk</t>
   </si>
   <si>
-    <t>3 ч. 54 мин. 1 сек.</t>
+    <t>3 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>daktule</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 59 сек.</t>
+    <t>2 ч. 02 мин. 59 сек.</t>
   </si>
   <si>
     <t>zvonenko</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 48 сек.</t>
+    <t>3 ч. 03 мин. 48 сек.</t>
   </si>
   <si>
     <t>ZeaLotFeed</t>
@@ -8483,7 +8483,7 @@
     <t>Похудистка</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 5 сек.</t>
+    <t>1 ч. 00 мин. 05 сек.</t>
   </si>
   <si>
     <t>Imperanon</t>
@@ -8504,7 +8504,7 @@
     <t>Aiphos</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 15 сек.</t>
+    <t>2 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>Prana</t>
@@ -8537,7 +8537,7 @@
     <t>Lgg_</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 34 сек.</t>
+    <t>2 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>Telefunkenist</t>
@@ -8576,7 +8576,7 @@
     <t>BAHO_Sh</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 1 сек.</t>
+    <t>1 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>Frostegg</t>
@@ -8588,13 +8588,13 @@
     <t>Маквинчик</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 40 сек.</t>
+    <t>2 ч. 06 мин. 40 сек.</t>
   </si>
   <si>
     <t>Catsvill</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 48 сек.</t>
+    <t>1 ч. 02 мин. 48 сек.</t>
   </si>
   <si>
     <t>Слепой</t>
@@ -8612,19 +8612,19 @@
     <t>vshevtsov</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 3 сек.</t>
+    <t>1 ч. 53 мин. 03 сек.</t>
   </si>
   <si>
     <t>Riki234</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 4 сек.</t>
+    <t>1 ч. 01 мин. 04 сек.</t>
   </si>
   <si>
     <t>Artursrst</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 6 сек.</t>
+    <t>1 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>Zenvi</t>
@@ -8669,7 +8669,7 @@
     <t>Sunrise13</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 1 сек.</t>
+    <t>2 ч. 05 мин. 01 сек.</t>
   </si>
   <si>
     <t>strekozza</t>
@@ -8723,7 +8723,7 @@
     <t>Анетточка</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 3 сек.</t>
+    <t>1 ч. 15 мин. 03 сек.</t>
   </si>
   <si>
     <t>super_typing</t>
@@ -8762,7 +8762,7 @@
     <t>Wissen</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 2 сек.</t>
+    <t>1 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>MMMAAANNN</t>
@@ -8807,7 +8807,7 @@
     <t>Алексей_19</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 57 сек.</t>
+    <t>2 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>Aisttt</t>
@@ -8819,7 +8819,7 @@
     <t>Alex_Volo</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 4 сек.</t>
+    <t>1 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>Ллисса</t>
@@ -8837,7 +8837,7 @@
     <t>Ksano</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 39 сек.</t>
+    <t>1 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>-Nicolas-</t>
@@ -8858,7 +8858,7 @@
     <t>Makis</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 16 сек.</t>
+    <t>1 ч. 03 мин. 16 сек.</t>
   </si>
   <si>
     <t>Telford</t>
@@ -8879,7 +8879,7 @@
     <t>Keysman</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 9 сек.</t>
+    <t>1 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>danil320138545</t>
@@ -8912,7 +8912,7 @@
     <t>Маркизик</t>
   </si>
   <si>
-    <t>1 ч. 56 мин. 1 сек.</t>
+    <t>1 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>fly22</t>
@@ -8930,7 +8930,7 @@
     <t>Гимли</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 18 сек.</t>
+    <t>1 ч. 03 мин. 18 сек.</t>
   </si>
   <si>
     <t>darklord200</t>
@@ -8942,7 +8942,7 @@
     <t>KAYFARYK</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 10 сек.</t>
+    <t>1 ч. 06 мин. 10 сек.</t>
   </si>
   <si>
     <t>68Liss</t>
@@ -8966,13 +8966,13 @@
     <t>serge-kruf</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 52 сек.</t>
+    <t>1 ч. 07 мин. 52 сек.</t>
   </si>
   <si>
     <t>I-van</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 3 сек.</t>
+    <t>1 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>velsher123</t>
@@ -8999,7 +8999,7 @@
     <t>NePhiLiM</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 26 сек.</t>
+    <t>2 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>scorpio10</t>
@@ -9011,7 +9011,7 @@
     <t>Apox</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 48 сек.</t>
+    <t>1 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>феромона</t>
@@ -9041,7 +9041,7 @@
     <t>Smartzero</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 9 сек.</t>
+    <t>1 ч. 06 мин. 09 сек.</t>
   </si>
   <si>
     <t>1280–1292</t>
@@ -9056,7 +9056,7 @@
     <t>Koth</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 16 сек.</t>
+    <t>1 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>Genek</t>
@@ -9068,7 +9068,7 @@
     <t>Adjery</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 41 сек.</t>
+    <t>1 ч. 05 мин. 41 сек.</t>
   </si>
   <si>
     <t>Barracooda</t>
@@ -9104,7 +9104,7 @@
     <t>TDV</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 33 сек.</t>
+    <t>1 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>coffee_break</t>
@@ -9161,7 +9161,7 @@
     <t>aleks2ud</t>
   </si>
   <si>
-    <t>2 ч. 25 мин. 0 сек.</t>
+    <t>2 ч. 25 мин. 00 сек.</t>
   </si>
   <si>
     <t>Ladimir</t>
@@ -9182,7 +9182,7 @@
     <t>Vladimir72</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 8 сек.</t>
+    <t>1 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>ninjaTurtle1</t>
@@ -9245,13 +9245,13 @@
     <t>h0ly-n1</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 27 сек.</t>
+    <t>1 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>Wind_Of_Change</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 57 сек.</t>
+    <t>1 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>savaggge</t>
@@ -9299,7 +9299,7 @@
     <t>_onix</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 35 сек.</t>
+    <t>1 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>DevilInside</t>
@@ -9311,13 +9311,13 @@
     <t>Saiche</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 3 сек.</t>
+    <t>1 ч. 22 мин. 03 сек.</t>
   </si>
   <si>
     <t>TuaDop</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 52 сек.</t>
+    <t>1 ч. 00 мин. 52 сек.</t>
   </si>
   <si>
     <t>1326–1340</t>
@@ -9353,25 +9353,25 @@
     <t>al0ne</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 30 сек.</t>
+    <t>1 ч. 00 мин. 30 сек.</t>
   </si>
   <si>
     <t>orlova-na1949</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 54 сек.</t>
+    <t>6 ч. 02 мин. 54 сек.</t>
   </si>
   <si>
     <t>Vespertilio</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 0 сек.</t>
+    <t>1 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>Exolon</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 7 сек.</t>
+    <t>1 ч. 07 мин. 07 сек.</t>
   </si>
   <si>
     <t>Disha</t>
@@ -9401,7 +9401,7 @@
     <t>273</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 18 сек.</t>
+    <t>1 ч. 08 мин. 18 сек.</t>
   </si>
   <si>
     <t>atommix</t>
@@ -9434,13 +9434,13 @@
     <t>s_a_k_u_r_a</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 8 сек.</t>
+    <t>1 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>ErgoFrog</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 41 сек.</t>
+    <t>2 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>drMotor</t>
@@ -9482,13 +9482,13 @@
     <t>Кецба</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 9 сек.</t>
+    <t>1 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>Livens</t>
   </si>
   <si>
-    <t>3 ч. 39 мин. 8 сек.</t>
+    <t>3 ч. 39 мин. 08 сек.</t>
   </si>
   <si>
     <t>ЕпРсТич</t>
@@ -9527,19 +9527,19 @@
     <t>mhkoroboff</t>
   </si>
   <si>
-    <t>2 ч. 41 мин. 6 сек.</t>
+    <t>2 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>sovofeel</t>
   </si>
   <si>
-    <t>1 ч. 31 мин. 6 сек.</t>
+    <t>1 ч. 31 мин. 06 сек.</t>
   </si>
   <si>
     <t>molto_bella</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 4 сек.</t>
+    <t>1 ч. 08 мин. 04 сек.</t>
   </si>
   <si>
     <t>Chester946</t>
@@ -9563,7 +9563,7 @@
     <t>XR7</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 50 сек.</t>
+    <t>2 ч. 02 мин. 50 сек.</t>
   </si>
   <si>
     <t>1367–1378</t>
@@ -9590,7 +9590,7 @@
     <t>Dark_Ruby</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 48 сек.</t>
+    <t>1 ч. 09 мин. 48 сек.</t>
   </si>
   <si>
     <t>Ruslan23</t>
@@ -9620,7 +9620,7 @@
     <t>fill341</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 41 сек.</t>
+    <t>3 ч. 06 мин. 41 сек.</t>
   </si>
   <si>
     <t>__мутя__</t>
@@ -9692,13 +9692,13 @@
     <t>Nigrodeus</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 6 сек.</t>
+    <t>1 ч. 47 мин. 06 сек.</t>
   </si>
   <si>
     <t>Стартуем</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 2 сек.</t>
+    <t>1 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>Алекс-1</t>
@@ -9716,31 +9716,31 @@
     <t>optozorax</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 20 сек.</t>
+    <t>1 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>Kravis</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 37 сек.</t>
+    <t>1 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>La_Nr</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 2 сек.</t>
+    <t>1 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>Евромайдан</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 32 сек.</t>
+    <t>1 ч. 08 мин. 32 сек.</t>
   </si>
   <si>
     <t>L_E_O</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 7 сек.</t>
+    <t>1 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>Крестоносец</t>
@@ -9758,7 +9758,7 @@
     <t>Umme</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 31 сек.</t>
+    <t>1 ч. 07 мин. 31 сек.</t>
   </si>
   <si>
     <t>docomo68k</t>
@@ -9779,13 +9779,13 @@
     <t>timikus</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 14 сек.</t>
+    <t>1 ч. 07 мин. 14 сек.</t>
   </si>
   <si>
     <t>Kansee</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 5 сек.</t>
+    <t>1 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>maks-</t>
@@ -9797,7 +9797,7 @@
     <t>_Akamoe_</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 34 сек.</t>
+    <t>1 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>igori4956</t>
@@ -9821,7 +9821,7 @@
     <t>Модильяни</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 2 сек.</t>
+    <t>1 ч. 57 мин. 02 сек.</t>
   </si>
   <si>
     <t>Marysav</t>
@@ -9845,7 +9845,7 @@
     <t>miran</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 0 сек.</t>
+    <t>1 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>Рафаил</t>
@@ -9857,7 +9857,7 @@
     <t>СистемныйАнализ</t>
   </si>
   <si>
-    <t>0 ч. 59 мин. 4 сек.</t>
+    <t>0 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>cucadmuh</t>
@@ -9866,13 +9866,13 @@
     <t>Cavaliers23</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 36 сек.</t>
+    <t>1 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>Kemban</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 13 сек.</t>
+    <t>1 ч. 01 мин. 13 сек.</t>
   </si>
   <si>
     <t>Днище_грЕбаное</t>
@@ -9902,7 +9902,7 @@
     <t>MarineLandscape</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 58 сек.</t>
+    <t>1 ч. 05 мин. 58 сек.</t>
   </si>
 </sst>
 </file>
